--- a/excelFiles/jamison.xlsx
+++ b/excelFiles/jamison.xlsx
@@ -427,439 +427,441 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
+        <v>The Hana</v>
+      </c>
+      <c r="B2" t="str" xml:space="preserve">
+        <v xml:space="preserve">1 bed: 3
+2 bed: 2
+Percent: %</v>
+      </c>
+      <c r="C2" t="str">
+        <v>1 Month FREE on 13 Month Lease. Discounts are already applied in the price listed.</v>
+      </c>
+      <c r="D2" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="E2" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2631-2798
+($3.01-3.45)</v>
+      </c>
+      <c r="F2" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $3676-3888
+($2.92-3.55)</v>
+      </c>
+      <c r="G2" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>The Thompson</v>
+      </c>
+      <c r="B3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Studio: 12
+1 bed: 5
+Percent: %</v>
+      </c>
+      <c r="C3" t="str">
+        <v>UP TO 6 WEEKS FREE on select units; some restrictions may apply; please contact leasing office for details!</v>
+      </c>
+      <c r="D3" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $1920-2120
+($3.91-4.51)</v>
+      </c>
+      <c r="E3" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2300-2420
+($3.86-4.51)</v>
+      </c>
+      <c r="F3" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="G3" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>ABY - The Abbey</v>
+      </c>
+      <c r="B4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Studio: 1
+1 bed: 1
+Percent: %</v>
+      </c>
+      <c r="C4" t="str">
+        <v>$500 OFF 1ST MONTH LEASE!! (on approved credit/13 month lease)</v>
+      </c>
+      <c r="D4" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $1995
+($3.71)</v>
+      </c>
+      <c r="E4" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2195
+($3.19)</v>
+      </c>
+      <c r="F4" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="G4" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>30Sixty</v>
+      </c>
+      <c r="B5" t="str" xml:space="preserve">
+        <v xml:space="preserve">1 bed: 10
+2 bed: 3
+Percent: %</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Up to 8 Weeks Free Special *on select units; some restrictions may apply; please contact leasing office for details (Specials have been applied with the price for some units)!</v>
+      </c>
+      <c r="D5" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="E5" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2050-2750
+($3.37-4.17)</v>
+      </c>
+      <c r="F5" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $3015-3600
+($3.43-3.85)</v>
+      </c>
+      <c r="G5" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>Nova Apartments on Wilshire</v>
+      </c>
+      <c r="B6" t="str" xml:space="preserve">
+        <v xml:space="preserve">1 bed: 5
+2 bed: 1
+Percent: %</v>
+      </c>
+      <c r="C6" t="str">
+        <v>*up to 4 weeks on select units; listed price reflects promotion, some restrictions may apply; please contact leasing office for details!</v>
+      </c>
+      <c r="D6" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="E6" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2215-4475
+($3.66-4.25)</v>
+      </c>
+      <c r="F6" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $3415
+($3.4)</v>
+      </c>
+      <c r="G6" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>Morgan Lofts</v>
+      </c>
+      <c r="B7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Studio: 1
+1 bed: 1
+Percent: %</v>
+      </c>
+      <c r="C7" t="str">
+        <v>none</v>
+      </c>
+      <c r="D7" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2250
+($3.16)</v>
+      </c>
+      <c r="E7" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $3900
+($3.21)</v>
+      </c>
+      <c r="F7" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="G7" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
         <v>The Harper</v>
       </c>
-      <c r="B2" t="str" xml:space="preserve">
+      <c r="B8" t="str" xml:space="preserve">
         <v xml:space="preserve">1 bed: 6
 2 bed: 4
 Percent: %</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C8" t="str">
         <v>Now offering 1 Month FREE on a 13-Month Lease! Special Price On selected units with 12-Month Lease! (Discounts are already applied in the price listed).</v>
       </c>
-      <c r="D2" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="E2" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2538-3000
+      <c r="D8" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="E8" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2538-3000
 ($3.35-3.71)</v>
       </c>
-      <c r="F2" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $3336-3951
+      <c r="F8" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $3336-3951
 ($2.8-3.29)</v>
       </c>
-      <c r="G2" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>The Hana</v>
-      </c>
-      <c r="B3" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 3
-2 bed: 2
-Percent: %</v>
-      </c>
-      <c r="C3" t="str">
-        <v>1 Month FREE on 13 Month Lease. Discounts are already applied in the price listed.</v>
-      </c>
-      <c r="D3" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2631-2798
-($3.01-3.45)</v>
-      </c>
-      <c r="F3" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $3676-3888
-($2.92-3.55)</v>
-      </c>
-      <c r="G3" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str">
+      <c r="G8" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>Luna</v>
+      </c>
+      <c r="B9" t="str" xml:space="preserve">
+        <v xml:space="preserve">1 bed: 9
+2 bed: 1
+Percent: %</v>
+      </c>
+      <c r="C9" t="str">
+        <v>UP TO 6 WEEKS FREE Special on select units! Some restrictions May Apply. Please contact the Leasing Office for details.</v>
+      </c>
+      <c r="D9" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="E9" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2000-2400
+($3.46-4.14)</v>
+      </c>
+      <c r="F9" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $3300
+($3.44)</v>
+      </c>
+      <c r="G9" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
         <v>The Arden</v>
       </c>
-      <c r="B4" t="str" xml:space="preserve">
+      <c r="B10" t="str" xml:space="preserve">
         <v xml:space="preserve">Studio: 5
 1 bed: 1
 Percent: %</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C10" t="str">
         <v>We are offering up to 4 weeks free rent on a 13 month lease or 2 months free on a 18 month lease on selected units on approved credit. ** Discounts are already reflected in the price listed</v>
       </c>
-      <c r="D4" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $1845-1915
+      <c r="D10" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $1845-1915
 ($3.62-3.82)</v>
       </c>
-      <c r="E4" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2125
+      <c r="E10" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2125
 ($3.84)</v>
       </c>
-      <c r="F4" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="G4" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>Kurve</v>
-      </c>
-      <c r="B5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 9
-1 bed: 21
-2 bed: 9
-3 bed: 1
-Percent: %</v>
-      </c>
-      <c r="C5" t="str">
-        <v>“Up to 6 Weeks Free + $1500 Look &amp; Lease! *Restrictions Apply”</v>
-      </c>
-      <c r="D5" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2206-3258
-($3.76-5.32)</v>
-      </c>
-      <c r="E5" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2630-4106
-($3.44-5.26)</v>
-      </c>
-      <c r="F5" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $4276-8995
-($3.36-5.38)</v>
-      </c>
-      <c r="G5" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $20995
-($5.59)</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>30Sixty</v>
-      </c>
-      <c r="B6" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 10
-2 bed: 3
-Percent: %</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Up to 8 Weeks Free Special *on select units; some restrictions may apply; please contact leasing office for details (Specials have been applied with the price for some units)!</v>
-      </c>
-      <c r="D6" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="E6" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2050-2750
-($3.37-4.17)</v>
-      </c>
-      <c r="F6" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $3015-3600
-($3.43-3.85)</v>
-      </c>
-      <c r="G6" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str">
+      <c r="F10" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="G10" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
         <v>The Audrey</v>
       </c>
-      <c r="B7" t="str" xml:space="preserve">
+      <c r="B11" t="str" xml:space="preserve">
         <v xml:space="preserve">1 bed: 1
 2 bed: 9
 Percent: %</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C11" t="str">
         <v>1. Up to 1 Month FREE with a lease term of 13 month. (Discounts are already reflected in the listed prices.)</v>
       </c>
-      <c r="D7" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="E7" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2354
+      <c r="D11" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="E11" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2354
 ($3.37)</v>
       </c>
-      <c r="F7" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2950-3700
+      <c r="F11" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2950-3700
 ($2.66-3.49)</v>
       </c>
-      <c r="G7" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8" t="str">
+      <c r="G11" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>The Nexen</v>
+      </c>
+      <c r="B12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Studio: 3
+1 bed: 2
+2 bed: 1
+Percent: %</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1 Month FREE on a 13 Month Lease. (Price listed reflects the discount evenly applied)</v>
+      </c>
+      <c r="D12" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2169-2318
+($3.92-4.05)</v>
+      </c>
+      <c r="E12" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2463-2515
+($3.67-3.77)</v>
+      </c>
+      <c r="F12" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $3295
+($3.54)</v>
+      </c>
+      <c r="G12" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>Westmore on Wilshire</v>
+      </c>
+      <c r="B13" t="str" xml:space="preserve">
+        <v xml:space="preserve">1 bed: 5
+2 bed: 3
+Percent: %</v>
+      </c>
+      <c r="C13" t="str">
+        <v>none</v>
+      </c>
+      <c r="D13" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="E13" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2140-2350
+($3.37-3.97)</v>
+      </c>
+      <c r="F13" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2900-3050
+($3.18-3.34)</v>
+      </c>
+      <c r="G13" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>Archer</v>
+      </c>
+      <c r="B14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Studio: 9
+1 bed: 16
+2 bed: 3
+Percent: %</v>
+      </c>
+      <c r="C14" t="str">
+        <v>1. Get $500 Look &amp; Lease Bonus if apply &amp; Sign within 24 hrs (For studio,1B1B,2B2B) 2. Two Month Free on 12 Month Lease 2. One Month Free on 13 Month Lease. (Discounts are already reflected in the listed prices.)</v>
+      </c>
+      <c r="D14" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $1994-2778
+($3.59-5)</v>
+      </c>
+      <c r="E14" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2300-3590
+($3.37-4.56)</v>
+      </c>
+      <c r="F14" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $3810-4080
+($3.95-4.26)</v>
+      </c>
+      <c r="G14" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
         <v>The Gemma</v>
       </c>
-      <c r="B8" t="str" xml:space="preserve">
+      <c r="B15" t="str" xml:space="preserve">
         <v xml:space="preserve">Studio: 8
 1 bed: 2
 2 bed: 1
 Percent: %</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C15" t="str">
         <v>Now offering 1 month FREE on a 13 month lease (applied on the 3rd month). Price listed includes the discount evenly applied over the lease term, however the original price is the monthly base rent.</v>
       </c>
-      <c r="D8" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2195-2647
+      <c r="D15" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2195-2647
 ($3.37-4.08)</v>
       </c>
-      <c r="E8" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2700-3100
+      <c r="E15" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2700-3100
 ($2.7-3.67)</v>
       </c>
-      <c r="F8" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $3650
+      <c r="F15" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $3650
 ($2.86)</v>
       </c>
-      <c r="G8" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
-      <c r="A9" t="str">
-        <v>The Thompson</v>
-      </c>
-      <c r="B9" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 12
-1 bed: 5
-Percent: %</v>
-      </c>
-      <c r="C9" t="str">
-        <v>UP TO 6 WEEKS FREE on select units; some restrictions may apply; please contact leasing office for details!</v>
-      </c>
-      <c r="D9" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $1920-2120
-($3.91-4.51)</v>
-      </c>
-      <c r="E9" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2300-2420
-($3.86-4.51)</v>
-      </c>
-      <c r="F9" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="G9" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10" t="str">
-        <v>Sawyer</v>
-      </c>
-      <c r="B10" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 13
-Percent: %</v>
-      </c>
-      <c r="C10" t="str">
-        <v>We are offering up to 4 weeks free rent on a 13 month lease or 2 months free on a 18 month lease on selected units on approved credit. ** Discounts are already reflected in the price listed</v>
-      </c>
-      <c r="D10" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="E10" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2210-3515
-($3.16-3.53)</v>
-      </c>
-      <c r="F10" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="G10" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11" t="str">
-        <v>Luna</v>
-      </c>
-      <c r="B11" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 9
-2 bed: 1
-Percent: %</v>
-      </c>
-      <c r="C11" t="str">
-        <v>UP TO 6 WEEKS FREE Special on select units! Some restrictions May Apply. Please contact the Leasing Office for details.</v>
-      </c>
-      <c r="D11" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="E11" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2000-2400
-($3.46-4.14)</v>
-      </c>
-      <c r="F11" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $3300
-($3.44)</v>
-      </c>
-      <c r="G11" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="12" xml:space="preserve">
-      <c r="A12" t="str">
-        <v>Archer</v>
-      </c>
-      <c r="B12" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 9
-1 bed: 16
-2 bed: 3
-Percent: %</v>
-      </c>
-      <c r="C12" t="str">
-        <v>1. Get $500 Look &amp; Lease Bonus if apply &amp; Sign within 24 hrs (For studio,1B1B,2B2B) 2. Two Month Free on 12 Month Lease 2. One Month Free on 13 Month Lease. (Discounts are already reflected in the listed prices.)</v>
-      </c>
-      <c r="D12" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $1994-2610
-($3.59-5)</v>
-      </c>
-      <c r="E12" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2300-3590
-($3.37-4.56)</v>
-      </c>
-      <c r="F12" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $3810-4080
-($3.95-4.26)</v>
-      </c>
-      <c r="G12" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="13" xml:space="preserve">
-      <c r="A13" t="str">
-        <v>ABY - The Abbey</v>
-      </c>
-      <c r="B13" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 1
-1 bed: 1
-Percent: %</v>
-      </c>
-      <c r="C13" t="str">
-        <v>$500 OFF 1ST MONTH LEASE!! (on approved credit/13 month lease)</v>
-      </c>
-      <c r="D13" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $1995
-($3.71)</v>
-      </c>
-      <c r="E13" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2195
-($3.19)</v>
-      </c>
-      <c r="F13" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="G13" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14" t="str">
+      <c r="G15" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>Crosby</v>
+      </c>
+      <c r="B16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Studio: 3
+1 bed: 2
+3 bed: 1
+Percent: %</v>
+      </c>
+      <c r="C16" t="str">
+        <v>*advertised price reflects effective rate with promo on 13 month term; only on select units; some restrictions may apply; please contact leasing office for details</v>
+      </c>
+      <c r="D16" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2075-2200
+($2.99-3.42)</v>
+      </c>
+      <c r="E16" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2675-3170
+($3.25-3.64)</v>
+      </c>
+      <c r="F16" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="G16" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $5260
+($3.66)</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
         <v>Atlas House</v>
       </c>
-      <c r="B14" t="str" xml:space="preserve">
+      <c r="B17" t="str" xml:space="preserve">
         <v xml:space="preserve">Studio: 13
 1 bed: 9
 2 bed: 2
 Percent: %</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C17" t="str">
         <v>LIMITED Special Price ONLY For April MOVE IN! (Discounts are already reflected in the listed prices.)</v>
       </c>
-      <c r="D14" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $1950-2450
+      <c r="D17" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $1950-2450
 ($3.29-4.87)</v>
       </c>
-      <c r="E14" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2400-3000
+      <c r="E17" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $2400-3000
 ($2.65-4.2)</v>
       </c>
-      <c r="F14" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $3285-3435
+      <c r="F17" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $3285-3435
 ($3.75-3.92)</v>
-      </c>
-      <c r="G14" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="15" xml:space="preserve">
-      <c r="A15" t="str">
-        <v>Nova Apartments on Wilshire</v>
-      </c>
-      <c r="B15" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 5
-2 bed: 1
-Percent: %</v>
-      </c>
-      <c r="C15" t="str">
-        <v>*up to 4 weeks on select units; listed price reflects promotion, some restrictions may apply; please contact leasing office for details!</v>
-      </c>
-      <c r="D15" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="E15" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2215-4475
-($3.66-4.25)</v>
-      </c>
-      <c r="F15" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $3415
-($3.4)</v>
-      </c>
-      <c r="G15" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="16" xml:space="preserve">
-      <c r="A16" t="str">
-        <v>Morgan Lofts</v>
-      </c>
-      <c r="B16" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 1
-1 bed: 1
-Percent: %</v>
-      </c>
-      <c r="C16" t="str">
-        <v>none</v>
-      </c>
-      <c r="D16" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2250
-($3.16)</v>
-      </c>
-      <c r="E16" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $3900
-($3.21)</v>
-      </c>
-      <c r="F16" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="G16" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="17" xml:space="preserve">
-      <c r="A17" t="str">
-        <v>Westmore on Wilshire</v>
-      </c>
-      <c r="B17" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 5
-2 bed: 3
-Percent: %</v>
-      </c>
-      <c r="C17" t="str">
-        <v>none</v>
-      </c>
-      <c r="D17" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="E17" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2140-2350
-($3.37-3.97)</v>
-      </c>
-      <c r="F17" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2900-3050
-($3.18-3.34)</v>
       </c>
       <c r="G17" t="str">
         <v>n/a</v>
@@ -867,60 +869,58 @@
     </row>
     <row r="18" xml:space="preserve">
       <c r="A18" t="str">
-        <v>Crosby</v>
+        <v>Sawyer</v>
       </c>
       <c r="B18" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 3
-1 bed: 2
-3 bed: 1
+        <v xml:space="preserve">1 bed: 13
 Percent: %</v>
       </c>
       <c r="C18" t="str">
-        <v>*advertised price reflects effective rate with promo on 13 month term; only on select units; some restrictions may apply; please contact leasing office for details</v>
-      </c>
-      <c r="D18" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2075-2200
-($2.99-3.42)</v>
+        <v>We are offering up to 4 weeks free rent on a 13 month lease or 2 months free on a 18 month lease on selected units on approved credit. ** Discounts are already reflected in the price listed</v>
+      </c>
+      <c r="D18" t="str">
+        <v>n/a</v>
       </c>
       <c r="E18" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2675-3170
-($3.25-3.64)</v>
+        <v xml:space="preserve">5/20: $2210-3515
+($3.16-3.53)</v>
       </c>
       <c r="F18" t="str">
         <v>n/a</v>
       </c>
-      <c r="G18" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $5260
-($3.66)</v>
+      <c r="G18" t="str">
+        <v>n/a</v>
       </c>
     </row>
     <row r="19" xml:space="preserve">
       <c r="A19" t="str">
-        <v>The Nexen</v>
+        <v>Kurve</v>
       </c>
       <c r="B19" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 3
-1 bed: 2
-2 bed: 1
+        <v xml:space="preserve">Studio: 9
+1 bed: 22
+2 bed: 9
+3 bed: 1
 Percent: %</v>
       </c>
       <c r="C19" t="str">
-        <v>1 Month FREE on a 13 Month Lease. (Price listed reflects the discount evenly applied)</v>
+        <v>“Up to 6 Weeks Free + $1500 Look &amp; Lease! *Restrictions Apply”</v>
       </c>
       <c r="D19" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2169-2318
-($3.92-4.05)</v>
+        <v xml:space="preserve">5/20: $2206-3258
+($3.76-5.32)</v>
       </c>
       <c r="E19" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $2463-2515
-($3.67-3.77)</v>
+        <v xml:space="preserve">5/20: $2630-4106
+($3.44-5.26)</v>
       </c>
       <c r="F19" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/18: $3295
-($3.54)</v>
-      </c>
-      <c r="G19" t="str">
-        <v>n/a</v>
+        <v xml:space="preserve">5/20: $4276-8995
+($3.36-5.38)</v>
+      </c>
+      <c r="G19" t="str" xml:space="preserve">
+        <v xml:space="preserve">5/20: $20995
+($5.59)</v>
       </c>
     </row>
   </sheetData>

--- a/excelFiles/jamison.xlsx
+++ b/excelFiles/jamison.xlsx
@@ -427,26 +427,26 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>The Hana</v>
+        <v>The Thompson</v>
       </c>
       <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 3
-2 bed: 2
+        <v xml:space="preserve">Studio: 10
+1 bed: 4
 Percent: %</v>
       </c>
       <c r="C2" t="str">
-        <v>1 Month FREE on 13 Month Lease. Discounts are already applied in the price listed.</v>
-      </c>
-      <c r="D2" t="str">
-        <v>n/a</v>
+        <v>UP TO 2 MONTHS FREE on select units; some restrictions may apply; please contact leasing office for details!</v>
+      </c>
+      <c r="D2" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $1920-2120
+($3.91-4.51)</v>
       </c>
       <c r="E2" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2631-2798
-($3.01-3.45)</v>
-      </c>
-      <c r="F2" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $3676-3888
-($2.92-3.55)</v>
+        <v xml:space="preserve">6/2: $2375-2420
+($3.86-4.51)</v>
+      </c>
+      <c r="F2" t="str">
+        <v>n/a</v>
       </c>
       <c r="G2" t="str">
         <v>n/a</v>
@@ -454,26 +454,24 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>The Thompson</v>
+        <v>The Audrey</v>
       </c>
       <c r="B3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 12
-1 bed: 5
+        <v xml:space="preserve">2 bed: 5
 Percent: %</v>
       </c>
       <c r="C3" t="str">
-        <v>UP TO 6 WEEKS FREE on select units; some restrictions may apply; please contact leasing office for details!</v>
-      </c>
-      <c r="D3" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $1920-2120
-($3.91-4.51)</v>
-      </c>
-      <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2300-2420
-($3.86-4.51)</v>
-      </c>
-      <c r="F3" t="str">
-        <v>n/a</v>
+        <v>1. Up to 1 Month FREE with a lease term of 13 month. (Discounts are already reflected in the listed prices.)</v>
+      </c>
+      <c r="D3" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="E3" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="F3" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $3092-3700
+($2.73-3.44)</v>
       </c>
       <c r="G3" t="str">
         <v>n/a</v>
@@ -481,26 +479,26 @@
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>ABY - The Abbey</v>
+        <v>30Sixty</v>
       </c>
       <c r="B4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 1
-1 bed: 1
+        <v xml:space="preserve">1 bed: 8
+2 bed: 3
 Percent: %</v>
       </c>
       <c r="C4" t="str">
-        <v>$500 OFF 1ST MONTH LEASE!! (on approved credit/13 month lease)</v>
-      </c>
-      <c r="D4" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $1995
-($3.71)</v>
+        <v>Up to 8 Weeks Free Special *on select units; some restrictions may apply; please contact leasing office for details (Specials have been applied with the price for some units)!</v>
+      </c>
+      <c r="D4" t="str">
+        <v>n/a</v>
       </c>
       <c r="E4" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2195
-($3.19)</v>
-      </c>
-      <c r="F4" t="str">
-        <v>n/a</v>
+        <v xml:space="preserve">6/2: $2250-2600
+($3.14-4.01)</v>
+      </c>
+      <c r="F4" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $2980-3500
+($3.39-3.74)</v>
       </c>
       <c r="G4" t="str">
         <v>n/a</v>
@@ -508,26 +506,26 @@
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
-        <v>30Sixty</v>
+        <v>Luna</v>
       </c>
       <c r="B5" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 10
-2 bed: 3
+        <v xml:space="preserve">1 bed: 11
+2 bed: 1
 Percent: %</v>
       </c>
       <c r="C5" t="str">
-        <v>Up to 8 Weeks Free Special *on select units; some restrictions may apply; please contact leasing office for details (Specials have been applied with the price for some units)!</v>
+        <v>UP TO 6 WEEKS FREE Special on select units! Some restrictions May Apply. Please contact the Leasing Office for details.</v>
       </c>
       <c r="D5" t="str">
         <v>n/a</v>
       </c>
       <c r="E5" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2050-2750
-($3.37-4.17)</v>
+        <v xml:space="preserve">6/2: $2000-2400
+($3.46-4.14)</v>
       </c>
       <c r="F5" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $3015-3600
-($3.43-3.85)</v>
+        <v xml:space="preserve">6/2: $3300
+($3.44)</v>
       </c>
       <c r="G5" t="str">
         <v>n/a</v>
@@ -535,26 +533,26 @@
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str">
-        <v>Nova Apartments on Wilshire</v>
+        <v>Westmore on Wilshire</v>
       </c>
       <c r="B6" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 5
-2 bed: 1
+        <v xml:space="preserve">1 bed: 7
+2 bed: 9
 Percent: %</v>
       </c>
       <c r="C6" t="str">
-        <v>*up to 4 weeks on select units; listed price reflects promotion, some restrictions may apply; please contact leasing office for details!</v>
+        <v>1-month Month FREE lease on approved credit. $1000 Look &amp; Lease Special: Apply within 24 hours of your tour to receive an additional $1,000.00 credit on your rent.</v>
       </c>
       <c r="D6" t="str">
         <v>n/a</v>
       </c>
       <c r="E6" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2215-4475
-($3.66-4.25)</v>
+        <v xml:space="preserve">6/2: $2250-2300
+($3.47-3.87)</v>
       </c>
       <c r="F6" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $3415
-($3.4)</v>
+        <v xml:space="preserve">6/2: $2750-3050
+($3.01-3.34)</v>
       </c>
       <c r="G6" t="str">
         <v>n/a</v>
@@ -570,14 +568,14 @@
 Percent: %</v>
       </c>
       <c r="C7" t="str">
-        <v>none</v>
+        <v>Contact directly for more information and current specials.</v>
       </c>
       <c r="D7" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2250
+        <v xml:space="preserve">6/2: $2250
 ($3.16)</v>
       </c>
       <c r="E7" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $3900
+        <v xml:space="preserve">6/2: $3900
 ($3.21)</v>
       </c>
       <c r="F7" t="str">
@@ -589,26 +587,26 @@
     </row>
     <row r="8" xml:space="preserve">
       <c r="A8" t="str">
-        <v>The Harper</v>
+        <v>ABY - The Abbey</v>
       </c>
       <c r="B8" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 6
-2 bed: 4
+        <v xml:space="preserve">Studio: 1
+1 bed: 1
 Percent: %</v>
       </c>
       <c r="C8" t="str">
-        <v>Now offering 1 Month FREE on a 13-Month Lease! Special Price On selected units with 12-Month Lease! (Discounts are already applied in the price listed).</v>
-      </c>
-      <c r="D8" t="str">
-        <v>n/a</v>
+        <v>$500 OFF 1ST MONTH LEASE!! (on approved credit/13 month lease)</v>
+      </c>
+      <c r="D8" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $1995
+($3.71)</v>
       </c>
       <c r="E8" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2538-3000
-($3.35-3.71)</v>
-      </c>
-      <c r="F8" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $3336-3951
-($2.8-3.29)</v>
+        <v xml:space="preserve">6/2: $2195
+($3.19)</v>
+      </c>
+      <c r="F8" t="str">
+        <v>n/a</v>
       </c>
       <c r="G8" t="str">
         <v>n/a</v>
@@ -616,53 +614,55 @@
     </row>
     <row r="9" xml:space="preserve">
       <c r="A9" t="str">
-        <v>Luna</v>
+        <v>Crosby</v>
       </c>
       <c r="B9" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 9
-2 bed: 1
+        <v xml:space="preserve">Studio: 4
+1 bed: 1
+3 bed: 1
 Percent: %</v>
       </c>
       <c r="C9" t="str">
-        <v>UP TO 6 WEEKS FREE Special on select units! Some restrictions May Apply. Please contact the Leasing Office for details.</v>
-      </c>
-      <c r="D9" t="str">
-        <v>n/a</v>
+        <v>1 Month FREE on select units PLUS $1000 look and lease bonus if you apply with 24 hours of touring; some restrictions may apply; please contact leasing office for details. Advertised price reflects promo on a 13 month term.</v>
+      </c>
+      <c r="D9" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $2075-2200
+($2.99-3.6)</v>
       </c>
       <c r="E9" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2000-2400
-($3.46-4.14)</v>
-      </c>
-      <c r="F9" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $3300
-($3.44)</v>
-      </c>
-      <c r="G9" t="str">
-        <v>n/a</v>
+        <v xml:space="preserve">6/2: $2675
+($3.25)</v>
+      </c>
+      <c r="F9" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="G9" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $5260
+($3.66)</v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
       <c r="A10" t="str">
-        <v>The Arden</v>
+        <v>Nova Apartments on Wilshire</v>
       </c>
       <c r="B10" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 5
-1 bed: 1
+        <v xml:space="preserve">1 bed: 4
+2 bed: 1
 Percent: %</v>
       </c>
       <c r="C10" t="str">
-        <v>We are offering up to 4 weeks free rent on a 13 month lease or 2 months free on a 18 month lease on selected units on approved credit. ** Discounts are already reflected in the price listed</v>
-      </c>
-      <c r="D10" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $1845-1915
-($3.62-3.82)</v>
+        <v>1 Month FREE on select units PLUS $1000 look and lease bonus if you apply with 24 hours of touring; some restrictions may apply; please contact leasing office for details. Advertised price reflects promo on a 13 month term.</v>
+      </c>
+      <c r="D10" t="str">
+        <v>n/a</v>
       </c>
       <c r="E10" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2125
-($3.84)</v>
-      </c>
-      <c r="F10" t="str">
-        <v>n/a</v>
+        <v xml:space="preserve">6/2: $2215-4475
+($3.66-4.25)</v>
+      </c>
+      <c r="F10" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $3275
+($3.27)</v>
       </c>
       <c r="G10" t="str">
         <v>n/a</v>
@@ -670,26 +670,28 @@
     </row>
     <row r="11" xml:space="preserve">
       <c r="A11" t="str">
-        <v>The Audrey</v>
+        <v>Archer</v>
       </c>
       <c r="B11" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 1
-2 bed: 9
+        <v xml:space="preserve">Studio: 9
+1 bed: 14
+2 bed: 3
 Percent: %</v>
       </c>
       <c r="C11" t="str">
-        <v>1. Up to 1 Month FREE with a lease term of 13 month. (Discounts are already reflected in the listed prices.)</v>
-      </c>
-      <c r="D11" t="str">
-        <v>n/a</v>
+        <v>Now Offering 2 Months FREE on a 15 Month Lease for 1B1B (applied on the 3rd and 4th month) OR 1 Month Free on 13 Month Lease for STUDIO and 2B2B (applied on the 3rd month). Discounts are already reflected in the listed price.</v>
+      </c>
+      <c r="D11" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $2017-2289
+($3.65-4.55)</v>
       </c>
       <c r="E11" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2354
-($3.37)</v>
+        <v xml:space="preserve">6/2: $2120-2895
+($2.89-4.26)</v>
       </c>
       <c r="F11" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2950-3700
-($2.66-3.49)</v>
+        <v xml:space="preserve">6/2: $3092-3185
+($3.04-3.5)</v>
       </c>
       <c r="G11" t="str">
         <v>n/a</v>
@@ -697,113 +699,111 @@
     </row>
     <row r="12" xml:space="preserve">
       <c r="A12" t="str">
+        <v>Sawyer</v>
+      </c>
+      <c r="B12" t="str" xml:space="preserve">
+        <v xml:space="preserve">1 bed: 8
+2 bed: 1
+Percent: %</v>
+      </c>
+      <c r="C12" t="str">
+        <v>We are offering up to 4 weeks free rent on a 13 month lease or 2 months free on a 18 month lease on selected units on approved credit. ** Discounts are already reflected in the price listed</v>
+      </c>
+      <c r="D12" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="E12" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $1985-3515
+($2.69-3.54)</v>
+      </c>
+      <c r="F12" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $3045
+($2.97)</v>
+      </c>
+      <c r="G12" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>The Harper</v>
+      </c>
+      <c r="B13" t="str" xml:space="preserve">
+        <v xml:space="preserve">1 bed: 5
+2 bed: 4
+Percent: %</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Now offering 1 Month FREE on a 13-Month Lease! Special Price On selected units with 12-Month Lease! (Discounts are already applied in the price listed).</v>
+      </c>
+      <c r="D13" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="E13" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $2701-3000
+($3.35-3.71)</v>
+      </c>
+      <c r="F13" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $3197-3786
+($2.69-3.15)</v>
+      </c>
+      <c r="G13" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>The Gemma</v>
+      </c>
+      <c r="B14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Studio: 23
+1 bed: 3
+2 bed: 2
+Percent: %</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Now offering 1 month FREE on a 13 month lease (applied on the 3rd month). Price listed includes the discount evenly applied over the lease term, however the original price is the monthly base rent.</v>
+      </c>
+      <c r="D14" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $2077-2908
+($2.94-3.96)</v>
+      </c>
+      <c r="E14" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $2400-3231
+($2.66-3.27)</v>
+      </c>
+      <c r="F14" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $3556-3661
+($3.1-3.19)</v>
+      </c>
+      <c r="G14" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
         <v>The Nexen</v>
       </c>
-      <c r="B12" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 3
+      <c r="B15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Studio: 1
 1 bed: 2
 2 bed: 1
 Percent: %</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C15" t="str">
         <v>1 Month FREE on a 13 Month Lease. (Price listed reflects the discount evenly applied)</v>
       </c>
-      <c r="D12" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2169-2318
-($3.92-4.05)</v>
-      </c>
-      <c r="E12" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2463-2515
+      <c r="D15" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $2169
+($4.05)</v>
+      </c>
+      <c r="E15" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $2463-2515
 ($3.67-3.77)</v>
       </c>
-      <c r="F12" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $3295
+      <c r="F15" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $3295
 ($3.54)</v>
-      </c>
-      <c r="G12" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="13" xml:space="preserve">
-      <c r="A13" t="str">
-        <v>Westmore on Wilshire</v>
-      </c>
-      <c r="B13" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 5
-2 bed: 3
-Percent: %</v>
-      </c>
-      <c r="C13" t="str">
-        <v>none</v>
-      </c>
-      <c r="D13" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="E13" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2140-2350
-($3.37-3.97)</v>
-      </c>
-      <c r="F13" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2900-3050
-($3.18-3.34)</v>
-      </c>
-      <c r="G13" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14" t="str">
-        <v>Archer</v>
-      </c>
-      <c r="B14" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 9
-1 bed: 16
-2 bed: 3
-Percent: %</v>
-      </c>
-      <c r="C14" t="str">
-        <v>1. Get $500 Look &amp; Lease Bonus if apply &amp; Sign within 24 hrs (For studio,1B1B,2B2B) 2. Two Month Free on 12 Month Lease 2. One Month Free on 13 Month Lease. (Discounts are already reflected in the listed prices.)</v>
-      </c>
-      <c r="D14" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $1994-2778
-($3.59-5)</v>
-      </c>
-      <c r="E14" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2300-3590
-($3.37-4.56)</v>
-      </c>
-      <c r="F14" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $3810-4080
-($3.95-4.26)</v>
-      </c>
-      <c r="G14" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="15" xml:space="preserve">
-      <c r="A15" t="str">
-        <v>The Gemma</v>
-      </c>
-      <c r="B15" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 8
-1 bed: 2
-2 bed: 1
-Percent: %</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Now offering 1 month FREE on a 13 month lease (applied on the 3rd month). Price listed includes the discount evenly applied over the lease term, however the original price is the monthly base rent.</v>
-      </c>
-      <c r="D15" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2195-2647
-($3.37-4.08)</v>
-      </c>
-      <c r="E15" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2700-3100
-($2.7-3.67)</v>
-      </c>
-      <c r="F15" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $3650
-($2.86)</v>
       </c>
       <c r="G15" t="str">
         <v>n/a</v>
@@ -811,116 +811,116 @@
     </row>
     <row r="16" xml:space="preserve">
       <c r="A16" t="str">
-        <v>Crosby</v>
+        <v>The Hana</v>
       </c>
       <c r="B16" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 3
-1 bed: 2
-3 bed: 1
+        <v xml:space="preserve">1 bed: 2
+2 bed: 2
 Percent: %</v>
       </c>
       <c r="C16" t="str">
-        <v>*advertised price reflects effective rate with promo on 13 month term; only on select units; some restrictions may apply; please contact leasing office for details</v>
-      </c>
-      <c r="D16" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2075-2200
-($2.99-3.42)</v>
+        <v>1 Month FREE on 13 Month Lease. Discounts are already applied in the price listed.</v>
+      </c>
+      <c r="D16" t="str">
+        <v>n/a</v>
       </c>
       <c r="E16" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2675-3170
-($3.25-3.64)</v>
-      </c>
-      <c r="F16" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="G16" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $5260
-($3.66)</v>
+        <v xml:space="preserve">6/2: $2631-2723
+($3.01-3.45)</v>
+      </c>
+      <c r="F16" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $3245-3676
+($2.92-2.96)</v>
+      </c>
+      <c r="G16" t="str">
+        <v>n/a</v>
       </c>
     </row>
     <row r="17" xml:space="preserve">
       <c r="A17" t="str">
+        <v>The Arden</v>
+      </c>
+      <c r="B17" t="str" xml:space="preserve">
+        <v xml:space="preserve">Studio: 7
+1 bed: 1
+Percent: %</v>
+      </c>
+      <c r="C17" t="str">
+        <v>We are offering up to 4 weeks free rent on a 13 month lease or 2 months free on a 18 month lease on selected units on approved credit. ** Discounts are already reflected in the price listed</v>
+      </c>
+      <c r="D17" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $1780-2075
+($3.49-4.13)</v>
+      </c>
+      <c r="E17" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $2125
+($3.84)</v>
+      </c>
+      <c r="F17" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="G17" t="str">
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Kurve</v>
+      </c>
+      <c r="B18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Studio: 7
+1 bed: 18
+2 bed: 13
+3 bed: 1
+Percent: %</v>
+      </c>
+      <c r="C18" t="str">
+        <v>“Up to 6 Weeks Free + $1500 Look &amp; Lease! *Restrictions Apply”</v>
+      </c>
+      <c r="D18" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $2505-3480
+($4.24-5.33)</v>
+      </c>
+      <c r="E18" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $3017-4056
+($3.4-5.1)</v>
+      </c>
+      <c r="F18" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $4204-18995
+($3.65-6.78)</v>
+      </c>
+      <c r="G18" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/2: $20995
+($5.59)</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
         <v>Atlas House</v>
       </c>
-      <c r="B17" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 13
+      <c r="B19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Studio: 12
 1 bed: 9
 2 bed: 2
 Percent: %</v>
       </c>
-      <c r="C17" t="str">
-        <v>LIMITED Special Price ONLY For April MOVE IN! (Discounts are already reflected in the listed prices.)</v>
-      </c>
-      <c r="D17" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $1950-2450
-($3.29-4.87)</v>
-      </c>
-      <c r="E17" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2400-3000
-($2.65-4.2)</v>
-      </c>
-      <c r="F17" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $3285-3435
-($3.75-3.92)</v>
-      </c>
-      <c r="G17" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="18" xml:space="preserve">
-      <c r="A18" t="str">
-        <v>Sawyer</v>
-      </c>
-      <c r="B18" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 13
-Percent: %</v>
-      </c>
-      <c r="C18" t="str">
-        <v>We are offering up to 4 weeks free rent on a 13 month lease or 2 months free on a 18 month lease on selected units on approved credit. ** Discounts are already reflected in the price listed</v>
-      </c>
-      <c r="D18" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="E18" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2210-3515
-($3.16-3.53)</v>
-      </c>
-      <c r="F18" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="G18" t="str">
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="19" xml:space="preserve">
-      <c r="A19" t="str">
-        <v>Kurve</v>
-      </c>
-      <c r="B19" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 9
-1 bed: 22
-2 bed: 9
-3 bed: 1
-Percent: %</v>
-      </c>
       <c r="C19" t="str">
-        <v>“Up to 6 Weeks Free + $1500 Look &amp; Lease! *Restrictions Apply”</v>
+        <v>Now offering Special Price on all the units! (Discounts are already applied in the price listed)</v>
       </c>
       <c r="D19" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2206-3258
-($3.76-5.32)</v>
+        <v xml:space="preserve">6/2: $1950-2308
+($3.26-4.59)</v>
       </c>
       <c r="E19" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $2630-4106
-($3.44-5.26)</v>
+        <v xml:space="preserve">6/2: $2400-2769
+($3.7-3.95)</v>
       </c>
       <c r="F19" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $4276-8995
-($3.36-5.38)</v>
-      </c>
-      <c r="G19" t="str" xml:space="preserve">
-        <v xml:space="preserve">5/20: $20995
-($5.59)</v>
+        <v xml:space="preserve">6/2: $3032-3055
+($3.46-3.49)</v>
+      </c>
+      <c r="G19" t="str">
+        <v>n/a</v>
       </c>
     </row>
   </sheetData>

--- a/excelFiles/jamison.xlsx
+++ b/excelFiles/jamison.xlsx
@@ -432,17 +432,17 @@
       <c r="B2" t="str" xml:space="preserve">
         <v xml:space="preserve">Studio: 10
 1 bed: 4
-Percent: %</v>
+Percent: 6.93%</v>
       </c>
       <c r="C2" t="str">
         <v>UP TO 2 MONTHS FREE on select units; some restrictions may apply; please contact leasing office for details!</v>
       </c>
       <c r="D2" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $1920-2120
+        <v xml:space="preserve">6/16: $1920-2120
 ($3.91-4.51)</v>
       </c>
       <c r="E2" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2375-2420
+        <v xml:space="preserve">6/16: $2375-2420
 ($3.86-4.51)</v>
       </c>
       <c r="F2" t="str">
@@ -457,8 +457,9 @@
         <v>The Audrey</v>
       </c>
       <c r="B3" t="str" xml:space="preserve">
-        <v xml:space="preserve">2 bed: 5
-Percent: %</v>
+        <v xml:space="preserve">1 bed: 1
+2 bed: 2
+Percent: 1.88%</v>
       </c>
       <c r="C3" t="str">
         <v>1. Up to 1 Month FREE with a lease term of 13 month. (Discounts are already reflected in the listed prices.)</v>
@@ -466,12 +467,13 @@
       <c r="D3" t="str">
         <v>n/a</v>
       </c>
-      <c r="E3" t="str">
-        <v>n/a</v>
+      <c r="E3" t="str" xml:space="preserve">
+        <v xml:space="preserve">6/16: $2852
+($3.19)</v>
       </c>
       <c r="F3" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $3092-3700
-($2.73-3.44)</v>
+        <v xml:space="preserve">6/16: $3600-3650
+($2.73-2.91)</v>
       </c>
       <c r="G3" t="str">
         <v>n/a</v>
@@ -482,9 +484,9 @@
         <v>30Sixty</v>
       </c>
       <c r="B4" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 8
+        <v xml:space="preserve">1 bed: 7
 2 bed: 3
-Percent: %</v>
+Percent: 4.42%</v>
       </c>
       <c r="C4" t="str">
         <v>Up to 8 Weeks Free Special *on select units; some restrictions may apply; please contact leasing office for details (Specials have been applied with the price for some units)!</v>
@@ -493,11 +495,11 @@
         <v>n/a</v>
       </c>
       <c r="E4" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2250-2600
-($3.14-4.01)</v>
+        <v xml:space="preserve">6/16: $2250-2600
+($3.54-4.01)</v>
       </c>
       <c r="F4" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2980-3500
+        <v xml:space="preserve">6/16: $2980-3500
 ($3.39-3.74)</v>
       </c>
       <c r="G4" t="str">
@@ -511,20 +513,20 @@
       <c r="B5" t="str" xml:space="preserve">
         <v xml:space="preserve">1 bed: 11
 2 bed: 1
-Percent: %</v>
+Percent: 5.74%</v>
       </c>
       <c r="C5" t="str">
-        <v>UP TO 6 WEEKS FREE Special on select units! Some restrictions May Apply. Please contact the Leasing Office for details.</v>
+        <v>UP TO 8 WEEKS FREE Special on select units! Some restrictions May Apply. Please contact the Leasing Office for details.</v>
       </c>
       <c r="D5" t="str">
         <v>n/a</v>
       </c>
       <c r="E5" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2000-2400
+        <v xml:space="preserve">6/16: $2000-2400
 ($3.46-4.14)</v>
       </c>
       <c r="F5" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $3300
+        <v xml:space="preserve">6/16: $3300
 ($3.44)</v>
       </c>
       <c r="G5" t="str">
@@ -536,22 +538,22 @@
         <v>Westmore on Wilshire</v>
       </c>
       <c r="B6" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 7
-2 bed: 9
-Percent: %</v>
+        <v xml:space="preserve">1 bed: 6
+2 bed: 8
+Percent: 11.02%</v>
       </c>
       <c r="C6" t="str">
-        <v>1-month Month FREE lease on approved credit. $1000 Look &amp; Lease Special: Apply within 24 hours of your tour to receive an additional $1,000.00 credit on your rent.</v>
+        <v>Move-in Special Now Offering 2 Months FREE on a 15 Month Lease OR 1 Month Free on 13 Month Lease with approval credit.</v>
       </c>
       <c r="D6" t="str">
         <v>n/a</v>
       </c>
       <c r="E6" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2250-2300
+        <v xml:space="preserve">6/16: $2250-2300
 ($3.47-3.87)</v>
       </c>
       <c r="F6" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2750-3050
+        <v xml:space="preserve">6/16: $2750-3050
 ($3.01-3.34)</v>
       </c>
       <c r="G6" t="str">
@@ -565,17 +567,17 @@
       <c r="B7" t="str" xml:space="preserve">
         <v xml:space="preserve">Studio: 1
 1 bed: 1
-Percent: %</v>
+Percent: 11.76%</v>
       </c>
       <c r="C7" t="str">
         <v>Contact directly for more information and current specials.</v>
       </c>
       <c r="D7" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2250
+        <v xml:space="preserve">6/16: $2250
 ($3.16)</v>
       </c>
       <c r="E7" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $3900
+        <v xml:space="preserve">6/16: $3900
 ($3.21)</v>
       </c>
       <c r="F7" t="str">
@@ -591,19 +593,17 @@
       </c>
       <c r="B8" t="str" xml:space="preserve">
         <v xml:space="preserve">Studio: 1
-1 bed: 1
-Percent: %</v>
+Percent: 0.91%</v>
       </c>
       <c r="C8" t="str">
         <v>$500 OFF 1ST MONTH LEASE!! (on approved credit/13 month lease)</v>
       </c>
       <c r="D8" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $1995
-($3.71)</v>
-      </c>
-      <c r="E8" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2195
-($3.19)</v>
+        <v xml:space="preserve">6/16: $1950
+($3.62)</v>
+      </c>
+      <c r="E8" t="str">
+        <v>n/a</v>
       </c>
       <c r="F8" t="str">
         <v>n/a</v>
@@ -617,27 +617,27 @@
         <v>Crosby</v>
       </c>
       <c r="B9" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 4
-1 bed: 1
+        <v xml:space="preserve">Studio: 5
+1 bed: 2
 3 bed: 1
-Percent: %</v>
+Percent: 2.38%</v>
       </c>
       <c r="C9" t="str">
         <v>1 Month FREE on select units PLUS $1000 look and lease bonus if you apply with 24 hours of touring; some restrictions may apply; please contact leasing office for details. Advertised price reflects promo on a 13 month term.</v>
       </c>
       <c r="D9" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2075-2200
-($2.99-3.6)</v>
+        <v xml:space="preserve">6/16: $2050-2200
+($2.99-3.55)</v>
       </c>
       <c r="E9" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2675
-($3.25)</v>
+        <v xml:space="preserve">6/16: $2675-3460
+($3.25-3.64)</v>
       </c>
       <c r="F9" t="str">
         <v>n/a</v>
       </c>
       <c r="G9" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $5260
+        <v xml:space="preserve">6/16: $5260
 ($3.66)</v>
       </c>
     </row>
@@ -646,9 +646,9 @@
         <v>Nova Apartments on Wilshire</v>
       </c>
       <c r="B10" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 4
+        <v xml:space="preserve">1 bed: 6
 2 bed: 1
-Percent: %</v>
+Percent: 3.07%</v>
       </c>
       <c r="C10" t="str">
         <v>1 Month FREE on select units PLUS $1000 look and lease bonus if you apply with 24 hours of touring; some restrictions may apply; please contact leasing office for details. Advertised price reflects promo on a 13 month term.</v>
@@ -657,11 +657,11 @@
         <v>n/a</v>
       </c>
       <c r="E10" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2215-4475
-($3.66-4.25)</v>
+        <v xml:space="preserve">6/16: $2675-4475
+($3.42-4.25)</v>
       </c>
       <c r="F10" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $3275
+        <v xml:space="preserve">6/16: $3275
 ($3.27)</v>
       </c>
       <c r="G10" t="str">
@@ -673,25 +673,25 @@
         <v>Archer</v>
       </c>
       <c r="B11" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 9
-1 bed: 14
-2 bed: 3
-Percent: %</v>
+        <v xml:space="preserve">Studio: 10
+1 bed: 13
+2 bed: 4
+Percent: 12.05%</v>
       </c>
       <c r="C11" t="str">
         <v>Now Offering 2 Months FREE on a 15 Month Lease for 1B1B (applied on the 3rd and 4th month) OR 1 Month Free on 13 Month Lease for STUDIO and 2B2B (applied on the 3rd month). Discounts are already reflected in the listed price.</v>
       </c>
       <c r="D11" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2017-2289
-($3.65-4.55)</v>
+        <v xml:space="preserve">6/16: $2017-2289
+($3.65-4.51)</v>
       </c>
       <c r="E11" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2120-2895
-($2.89-4.26)</v>
+        <v xml:space="preserve">6/16: $2120-2895
+($2.84-3.69)</v>
       </c>
       <c r="F11" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $3092-3185
-($3.04-3.5)</v>
+        <v xml:space="preserve">6/16: $3092-3822
+($3.04-3.7)</v>
       </c>
       <c r="G11" t="str">
         <v>n/a</v>
@@ -702,9 +702,8 @@
         <v>Sawyer</v>
       </c>
       <c r="B12" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 8
-2 bed: 1
-Percent: %</v>
+        <v xml:space="preserve">1 bed: 7
+Percent: 3.13%</v>
       </c>
       <c r="C12" t="str">
         <v>We are offering up to 4 weeks free rent on a 13 month lease or 2 months free on a 18 month lease on selected units on approved credit. ** Discounts are already reflected in the price listed</v>
@@ -713,12 +712,11 @@
         <v>n/a</v>
       </c>
       <c r="E12" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $1985-3515
+        <v xml:space="preserve">6/16: $2290-3515
 ($2.69-3.54)</v>
       </c>
-      <c r="F12" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $3045
-($2.97)</v>
+      <c r="F12" t="str">
+        <v>n/a</v>
       </c>
       <c r="G12" t="str">
         <v>n/a</v>
@@ -730,8 +728,8 @@
       </c>
       <c r="B13" t="str" xml:space="preserve">
         <v xml:space="preserve">1 bed: 5
-2 bed: 4
-Percent: %</v>
+2 bed: 3
+Percent: 6.11%</v>
       </c>
       <c r="C13" t="str">
         <v>Now offering 1 Month FREE on a 13-Month Lease! Special Price On selected units with 12-Month Lease! (Discounts are already applied in the price listed).</v>
@@ -740,11 +738,11 @@
         <v>n/a</v>
       </c>
       <c r="E13" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2701-3000
+        <v xml:space="preserve">6/16: $2701-2933
 ($3.35-3.71)</v>
       </c>
       <c r="F13" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $3197-3786
+        <v xml:space="preserve">6/16: $3224-3786
 ($2.69-3.15)</v>
       </c>
       <c r="G13" t="str">
@@ -756,25 +754,25 @@
         <v>The Gemma</v>
       </c>
       <c r="B14" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 23
-1 bed: 3
+        <v xml:space="preserve">Studio: 18
+1 bed: 4
 2 bed: 2
-Percent: %</v>
+Percent: 7.29%</v>
       </c>
       <c r="C14" t="str">
         <v>Now offering 1 month FREE on a 13 month lease (applied on the 3rd month). Price listed includes the discount evenly applied over the lease term, however the original price is the monthly base rent.</v>
       </c>
       <c r="D14" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2077-2908
-($2.94-3.96)</v>
+        <v xml:space="preserve">6/16: $2099-2445
+($3.11-3.88)</v>
       </c>
       <c r="E14" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2400-3231
-($2.66-3.27)</v>
+        <v xml:space="preserve">6/16: $2400-2956
+($2.58-3.63)</v>
       </c>
       <c r="F14" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $3556-3661
-($3.1-3.19)</v>
+        <v xml:space="preserve">6/16: $3300-3328
+($2.88-2.9)</v>
       </c>
       <c r="G14" t="str">
         <v>n/a</v>
@@ -785,25 +783,25 @@
         <v>The Nexen</v>
       </c>
       <c r="B15" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 1
-1 bed: 2
-2 bed: 1
-Percent: %</v>
+        <v xml:space="preserve">Studio: 2
+1 bed: 3
+2 bed: 2
+Percent: 3.07%</v>
       </c>
       <c r="C15" t="str">
         <v>1 Month FREE on a 13 Month Lease. (Price listed reflects the discount evenly applied)</v>
       </c>
       <c r="D15" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2169
-($4.05)</v>
+        <v xml:space="preserve">6/16: $2100-2156
+($3.56-3.93)</v>
       </c>
       <c r="E15" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2463-2515
-($3.67-3.77)</v>
+        <v xml:space="preserve">6/16: $2463-2760
+($3.55-3.77)</v>
       </c>
       <c r="F15" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $3295
-($3.54)</v>
+        <v xml:space="preserve">6/16: $3295-3466
+($3.3-3.54)</v>
       </c>
       <c r="G15" t="str">
         <v>n/a</v>
@@ -814,9 +812,9 @@
         <v>The Hana</v>
       </c>
       <c r="B16" t="str" xml:space="preserve">
-        <v xml:space="preserve">1 bed: 2
+        <v xml:space="preserve">1 bed: 1
 2 bed: 2
-Percent: %</v>
+Percent: 3.06%</v>
       </c>
       <c r="C16" t="str">
         <v>1 Month FREE on 13 Month Lease. Discounts are already applied in the price listed.</v>
@@ -825,11 +823,11 @@
         <v>n/a</v>
       </c>
       <c r="E16" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2631-2723
-($3.01-3.45)</v>
+        <v xml:space="preserve">6/16: $2631
+($3.01)</v>
       </c>
       <c r="F16" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $3245-3676
+        <v xml:space="preserve">6/16: $3245-3676
 ($2.92-2.96)</v>
       </c>
       <c r="G16" t="str">
@@ -843,17 +841,17 @@
       <c r="B17" t="str" xml:space="preserve">
         <v xml:space="preserve">Studio: 7
 1 bed: 1
-Percent: %</v>
+Percent: 7.34%</v>
       </c>
       <c r="C17" t="str">
         <v>We are offering up to 4 weeks free rent on a 13 month lease or 2 months free on a 18 month lease on selected units on approved credit. ** Discounts are already reflected in the price listed</v>
       </c>
       <c r="D17" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $1780-2075
+        <v xml:space="preserve">6/16: $1780-2075
 ($3.49-4.13)</v>
       </c>
       <c r="E17" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2125
+        <v xml:space="preserve">6/16: $2125
 ($3.84)</v>
       </c>
       <c r="F17" t="str">
@@ -869,28 +867,28 @@
       </c>
       <c r="B18" t="str" xml:space="preserve">
         <v xml:space="preserve">Studio: 7
-1 bed: 18
-2 bed: 13
+1 bed: 10
+2 bed: 12
 3 bed: 1
-Percent: %</v>
+Percent: 4.66%</v>
       </c>
       <c r="C18" t="str">
         <v>“Up to 6 Weeks Free + $1500 Look &amp; Lease! *Restrictions Apply”</v>
       </c>
       <c r="D18" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2505-3480
-($4.24-5.33)</v>
+        <v xml:space="preserve">6/16: $2505-3248
+($4.09-5.19)</v>
       </c>
       <c r="E18" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $3017-4056
-($3.4-5.1)</v>
+        <v xml:space="preserve">6/16: $2765-3883
+($3.3-5.18)</v>
       </c>
       <c r="F18" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $4204-18995
-($3.65-6.78)</v>
+        <v xml:space="preserve">6/16: $4097-18995
+($3.55-6.78)</v>
       </c>
       <c r="G18" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $20995
+        <v xml:space="preserve">6/16: $20995
 ($5.59)</v>
       </c>
     </row>
@@ -899,25 +897,25 @@
         <v>Atlas House</v>
       </c>
       <c r="B19" t="str" xml:space="preserve">
-        <v xml:space="preserve">Studio: 12
-1 bed: 9
+        <v xml:space="preserve">Studio: 13
+1 bed: 14
 2 bed: 2
-Percent: %</v>
+Percent: 11.69%</v>
       </c>
       <c r="C19" t="str">
         <v>Now offering Special Price on all the units! (Discounts are already applied in the price listed)</v>
       </c>
       <c r="D19" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $1950-2308
-($3.26-4.59)</v>
+        <v xml:space="preserve">6/16: $1955-2212
+($3.29-4.4)</v>
       </c>
       <c r="E19" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $2400-2769
-($3.7-3.95)</v>
+        <v xml:space="preserve">6/16: $2380-2769
+($3.38-4.09)</v>
       </c>
       <c r="F19" t="str" xml:space="preserve">
-        <v xml:space="preserve">6/2: $3032-3055
-($3.46-3.49)</v>
+        <v xml:space="preserve">6/16: $3310-3435
+($3.78-3.92)</v>
       </c>
       <c r="G19" t="str">
         <v>n/a</v>
